--- a/data/output/FV2410_FV2404/UTILMD/55001.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="443">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5691" uniqueCount="443">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1453,6 +1453,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U248" totalsRowShown="0">
+  <autoFilter ref="A1:U248"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1742,7 +1772,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13825,5 +13858,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55001.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55001.xlsx
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5147,7 +5147,7 @@
         <v>414</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5367,7 +5367,7 @@
         <v>415</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5695,7 +5695,7 @@
         <v>416</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6069,7 +6069,7 @@
         <v>417</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6273,7 +6273,7 @@
         <v>419</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6677,7 +6677,7 @@
         <v>421</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6823,7 +6823,7 @@
         <v>422</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7197,7 +7197,7 @@
         <v>425</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7659,7 +7659,7 @@
         <v>427</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8633,7 +8633,7 @@
         <v>429</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10257,7 +10257,7 @@
         <v>432</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10703,7 +10703,7 @@
         <v>433</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11207,7 +11207,7 @@
         <v>435</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12403,7 +12403,7 @@
         <v>436</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12939,7 +12939,7 @@
         <v>437</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -13255,7 +13255,7 @@
         <v>438</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13417,7 +13417,7 @@
         <v>439</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13575,7 +13575,7 @@
         <v>440</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -14107,7 +14107,7 @@
         <v>439</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14527,7 +14527,7 @@
         <v>443</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15221,7 +15221,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N246" s="2"/>
